--- a/SE-4381.0U1-PM/Team-Work/T02/WBS/WBS+Burndown.xlsx
+++ b/SE-4381.0U1-PM/Team-Work/T02/WBS/WBS+Burndown.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4381.0U1-PM\Team-Work\T02\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E30AC-B3B6-4FEF-8174-A44A594E7183}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{7B8E30AC-B3B6-4FEF-8174-A44A594E7183}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{B470DCFD-60F4-412F-939D-74A0AB399F23}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+  <si>
+    <t>Average reader reads 200 WPM and the average chapter is 2500 words. 12 minutes a chapter</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Level 7</t>
+  </si>
+  <si>
+    <t>Milestone Name</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
   <si>
     <t xml:space="preserve">Work Packages </t>
   </si>
@@ -33,164 +66,131 @@
     <t xml:space="preserve"> Estimations</t>
   </si>
   <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find CCPM references </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Traditional Management references </t>
+  </si>
+  <si>
+    <t>Read references and find key points</t>
+  </si>
+  <si>
+    <t>Critical Chain</t>
+  </si>
+  <si>
+    <t>A Critical Look at Critical Chain Project Management</t>
+  </si>
+  <si>
+    <t>Buffers &amp; Risk Critical Chain Project Management</t>
+  </si>
+  <si>
+    <t>Critical Chain Project Management-A Critique</t>
+  </si>
+  <si>
+    <t>Critical Path Method (CPM)</t>
+  </si>
+  <si>
+    <t>Critical Path Versus Critical Chain A Comparative View</t>
+  </si>
+  <si>
+    <t>The Goal</t>
+  </si>
+  <si>
+    <t>Individual Summaries</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Structure - Introduction, body, conclusion</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Proof read</t>
+  </si>
+  <si>
+    <t>Peer review</t>
+  </si>
+  <si>
+    <t>Final Version</t>
+  </si>
+  <si>
+    <t>Finalize paper</t>
+  </si>
+  <si>
+    <t>Group consensus</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find diagrams </t>
+  </si>
+  <si>
+    <t>Find references</t>
+  </si>
+  <si>
+    <t>10-15 minutes long = 10 - 15 slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides: keep short -&gt; include images </t>
+  </si>
+  <si>
+    <t>Finalize presentation</t>
+  </si>
+  <si>
+    <t>Lessons learned</t>
+  </si>
+  <si>
+    <t>lessons learned report</t>
+  </si>
+  <si>
+    <t>Rate teammates</t>
+  </si>
+  <si>
+    <t>summarize contributions of each member</t>
+  </si>
+  <si>
+    <t>Targets, to get on track</t>
+  </si>
+  <si>
+    <t>Total Days</t>
+  </si>
+  <si>
+    <t>Ideal Task Burndown</t>
+  </si>
+  <si>
+    <t>Tasks Remaining</t>
+  </si>
+  <si>
+    <t>Logged Effot</t>
+  </si>
+  <si>
     <t>Remaining Effort</t>
   </si>
   <si>
-    <t>Traditional</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level2</t>
-  </si>
-  <si>
-    <t>Level 3</t>
-  </si>
-  <si>
-    <t>Level 4</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Level 6</t>
-  </si>
-  <si>
-    <t>Level 7</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Milestone Name</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Wireless Additions</t>
-  </si>
-  <si>
-    <t>Floor Plan</t>
-  </si>
-  <si>
-    <t>Riser</t>
-  </si>
-  <si>
-    <t>Room Details</t>
-  </si>
-  <si>
-    <t>Create linetype</t>
-  </si>
-  <si>
-    <t>Print Example pdf</t>
-  </si>
-  <si>
-    <t>Restructure - 2 rungs from the Bridge</t>
-  </si>
-  <si>
-    <t>Restructure  - wireless bridge on vertical rung</t>
-  </si>
-  <si>
-    <t>Restrucutre - add additional wireless segement type</t>
-  </si>
-  <si>
-    <t>Restructure - group occupancy and interfaces on their own rung</t>
-  </si>
-  <si>
-    <t>Restructure - tighten all coordinate shifts</t>
-  </si>
-  <si>
-    <t>Restructure- draw viewports around all segments</t>
-  </si>
-  <si>
-    <t>Restrucutre - add wireless controller rung</t>
-  </si>
-  <si>
-    <t>Restrucutre - add wireless device rung</t>
-  </si>
-  <si>
-    <t>Agile</t>
-  </si>
-  <si>
-    <t>Relative Paths</t>
-  </si>
-  <si>
-    <t>Restructure- legacy code</t>
-  </si>
-  <si>
-    <t>Restructure- library code</t>
-  </si>
-  <si>
-    <t>Restrucutre - callable functions</t>
-  </si>
-  <si>
-    <t>Document Test Profile Usage</t>
-  </si>
-  <si>
-    <t>Install Alpha (first release) for 3 engineers</t>
-  </si>
-  <si>
-    <t>Beta (second release) for 9 engineers</t>
-  </si>
-  <si>
-    <t>Golden Copy (live environment code) release steps for all</t>
-  </si>
-  <si>
-    <t>Testing and Release</t>
-  </si>
-  <si>
-    <t>Unit Tests, Regression Tests, Test Cases</t>
-  </si>
-  <si>
-    <t>Addition - String Constants File</t>
-  </si>
-  <si>
-    <t>Tasks Remaining</t>
-  </si>
-  <si>
-    <t>Logged Effot</t>
-  </si>
-  <si>
-    <t>Total Days</t>
-  </si>
-  <si>
-    <t>Recofigurations Between Release</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Golden Copy</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Create Burndown from Existing Data</t>
-  </si>
-  <si>
-    <t>Continue to log</t>
-  </si>
-  <si>
-    <t>Ideal Task Burndown</t>
-  </si>
-  <si>
     <t>Ideal Effort Burndown</t>
-  </si>
-  <si>
-    <t>Submittal 2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,19 +201,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -257,6 +244,50 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -462,157 +493,139 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +739,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$37</c:f>
+              <c:f>Sheet1!$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -803,45 +816,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$37:$AK$37</c:f>
+              <c:f>Sheet1!$H$46:$AK$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -881,7 +894,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$38</c:f>
+              <c:f>Sheet1!$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -904,54 +917,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$38:$AJ$38</c:f>
+              <c:f>Sheet1!$H$47:$AJ$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>42.7</c:v>
+                  <c:v>45.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>45.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.6</c:v>
+                  <c:v>45.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.6</c:v>
+                  <c:v>45.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.6</c:v>
+                  <c:v>44.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.6</c:v>
+                  <c:v>43.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.6</c:v>
+                  <c:v>42.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.6</c:v>
+                  <c:v>41.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.6</c:v>
+                  <c:v>40.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>39.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>39.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.600000000000001</c:v>
+                  <c:v>39.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.600000000000001</c:v>
+                  <c:v>39.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.600000000000001</c:v>
+                  <c:v>39.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.600000000000001</c:v>
+                  <c:v>39.800000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,7 +981,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$39</c:f>
+              <c:f>Sheet1!$D$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -991,54 +1004,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$39:$AJ$39</c:f>
+              <c:f>Sheet1!$H$48:$AJ$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>44.053333333333335</c:v>
+                  <c:v>43.120000000000019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.906666666666666</c:v>
+                  <c:v>40.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.76</c:v>
+                  <c:v>36.960000000000022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.61333333333333</c:v>
+                  <c:v>33.880000000000024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.466666666666661</c:v>
+                  <c:v>30.800000000000022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.319999999999993</c:v>
+                  <c:v>27.72000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.173333333333325</c:v>
+                  <c:v>24.640000000000018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.026666666666657</c:v>
+                  <c:v>21.560000000000016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.879999999999988</c:v>
+                  <c:v>18.480000000000015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.733333333333322</c:v>
+                  <c:v>15.400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.586666666666655</c:v>
+                  <c:v>12.320000000000011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4399999999999888</c:v>
+                  <c:v>9.2400000000000091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2933333333333223</c:v>
+                  <c:v>6.1600000000000081</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1466666666666554</c:v>
+                  <c:v>3.0800000000000072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1546319456101628E-14</c:v>
+                  <c:v>6.2172489379008766E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,6 +1325,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1319,7 +1333,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1919,13 +1932,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>800101</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>21778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>191977</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>44638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1997,7 +2010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2049,7 +2062,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2251,1774 +2264,2003 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AK71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:V35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="7" customWidth="1"/>
-    <col min="6" max="38" width="12.7109375" style="7" customWidth="1"/>
-    <col min="39" max="16384" width="56.85546875" style="7"/>
+    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="38" width="12.7109375" style="2" customWidth="1"/>
+    <col min="39" max="16384" width="56.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-    </row>
-    <row r="2" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-    </row>
-    <row r="4" spans="1:38" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="22" t="s">
+    <row r="1" spans="1:37" ht="27" customHeight="1">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:37" ht="27" customHeight="1">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:37" ht="27" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:37" ht="27" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+    </row>
+    <row r="5" spans="1:37" ht="27" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="9"/>
-    </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="28">
+      <c r="G5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="26">
         <f>WEEKDAY(H6)</f>
         <v>5</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="27">
         <f t="shared" ref="I5:U5" si="0">WEEKDAY(I6)</f>
         <v>6</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U5" s="43">
+      <c r="U5" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="31">
         <f>WEEKDAY(V6)</f>
         <v>5</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-    </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+    </row>
+    <row r="6" spans="1:37" ht="27" customHeight="1">
+      <c r="A6" s="2"/>
       <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="G6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="30">
+        <v>14</v>
+      </c>
+      <c r="H6" s="32">
         <f>DATE(2018,6,21)</f>
         <v>43272</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="33">
         <f>H6+1</f>
         <v>43273</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="33">
         <f t="shared" ref="J6:V6" si="1">I6+1</f>
         <v>43274</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="33">
         <f t="shared" si="1"/>
         <v>43275</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="33">
         <f t="shared" si="1"/>
         <v>43276</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="33">
         <f t="shared" si="1"/>
         <v>43277</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="33">
         <f t="shared" si="1"/>
         <v>43278</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="33">
         <f t="shared" si="1"/>
         <v>43279</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="33">
         <f t="shared" si="1"/>
         <v>43280</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="34">
         <f t="shared" si="1"/>
         <v>43281</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="35">
         <f t="shared" si="1"/>
         <v>43282</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="35">
         <f t="shared" si="1"/>
         <v>43283</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="35">
         <f t="shared" si="1"/>
         <v>43284</v>
       </c>
-      <c r="U6" s="45">
+      <c r="U6" s="36">
         <f t="shared" si="1"/>
         <v>43285</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="37">
         <f t="shared" si="1"/>
         <v>43286</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-    </row>
-    <row r="7" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:37" ht="27" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <f>SUM(H7:V7)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="38">
+        <v>1</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="43"/>
+    </row>
+    <row r="8" spans="1:37" ht="27" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" ref="F8" si="2">SUM(H8:V8)</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39">
+        <v>1</v>
+      </c>
+      <c r="N8" s="39">
+        <v>1</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="43"/>
+    </row>
+    <row r="9" spans="1:37" ht="27" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="21">
+        <v>5</v>
+      </c>
+      <c r="F9" s="13">
+        <f>SUM(H9:V9)</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39">
+        <v>1</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39">
+        <v>1</v>
+      </c>
+      <c r="P9" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="43"/>
+    </row>
+    <row r="10" spans="1:37" ht="27" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" ref="F10:F39" si="3">SUM(H10:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
+    </row>
+    <row r="11" spans="1:37" ht="27" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="43"/>
+    </row>
+    <row r="12" spans="1:37" ht="27" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="43"/>
+    </row>
+    <row r="13" spans="1:37" ht="27" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="43"/>
+    </row>
+    <row r="14" spans="1:37" ht="27" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="43"/>
+    </row>
+    <row r="15" spans="1:37" ht="27" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="13">
+        <v>8</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
+    </row>
+    <row r="16" spans="1:37" ht="27" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="43"/>
+    </row>
+    <row r="17" spans="1:22" ht="27" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="21">
         <v>0.1</v>
       </c>
-      <c r="F7" s="2">
-        <f>SUM(H7:V7)</f>
+      <c r="F17" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="43"/>
+    </row>
+    <row r="18" spans="1:22" ht="27" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="21">
         <v>0.3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="F18" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="43"/>
+    </row>
+    <row r="19" spans="1:22" ht="27" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="43"/>
+    </row>
+    <row r="20" spans="1:22" ht="27" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="43"/>
+    </row>
+    <row r="21" spans="1:22" ht="27" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="43"/>
+    </row>
+    <row r="22" spans="1:22" ht="27" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="43"/>
+    </row>
+    <row r="23" spans="1:22" ht="27" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="21">
+        <v>4</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="43"/>
+    </row>
+    <row r="24" spans="1:22" ht="27" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="21">
         <v>1</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-    </row>
-    <row r="8" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="2">
-        <f>SUM(H8:V8)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F24" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="43"/>
+    </row>
+    <row r="25" spans="1:22" ht="27" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="21">
+        <v>2</v>
+      </c>
+      <c r="F25" s="13">
+        <f>SUM(H25:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="43"/>
+    </row>
+    <row r="26" spans="1:22" ht="27" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-    </row>
-    <row r="9" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="F26" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="43"/>
+    </row>
+    <row r="27" spans="1:22" ht="27" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="43"/>
+    </row>
+    <row r="28" spans="1:22" ht="27" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="21">
+        <v>2</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="43"/>
+    </row>
+    <row r="29" spans="1:22" ht="27" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="21">
+        <v>2</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="43"/>
+    </row>
+    <row r="30" spans="1:22" ht="27" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
-        <f>SUM(H9:V9)</f>
+      <c r="F30" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="43"/>
+    </row>
+    <row r="31" spans="1:22" ht="27" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="43"/>
+    </row>
+    <row r="32" spans="1:22" ht="27" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="43"/>
+    </row>
+    <row r="33" spans="1:37" ht="27" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="8">
+      <c r="F33" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0</v>
+      </c>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="43"/>
+    </row>
+    <row r="34" spans="1:37" ht="27" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33">
+      <c r="F34" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0</v>
+      </c>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="43"/>
+    </row>
+    <row r="35" spans="1:37" ht="27" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="21">
         <v>1</v>
       </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="40"/>
-    </row>
-    <row r="10" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="F35" s="13">
+        <f>SUM(H35:V35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0</v>
+      </c>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="43"/>
+    </row>
+    <row r="36" spans="1:37" ht="27" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="13">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
-        <f>SUM(H10:V10)</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33">
-        <v>1</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="40"/>
-    </row>
-    <row r="11" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <f>SUM(H11:V11)</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33">
-        <v>1</v>
-      </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="40"/>
-    </row>
-    <row r="12" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <f>SUM(H12:V12)</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33">
-        <v>1</v>
-      </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="40"/>
-    </row>
-    <row r="13" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="2">
-        <f>SUM(H13:V13)</f>
-        <v>4.5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="40"/>
-    </row>
-    <row r="14" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F14" s="2">
-        <f>SUM(H14:V14)</f>
-        <v>4.5</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="40"/>
-    </row>
-    <row r="15" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <f>SUM(H15:V15)</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="26">
-        <v>1</v>
-      </c>
-      <c r="T15" s="26"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="40"/>
-    </row>
-    <row r="16" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <f>SUM(H16:V16)</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="26">
-        <v>1</v>
-      </c>
-      <c r="T16" s="26"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="40"/>
-    </row>
-    <row r="17" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
-        <f>SUM(H17:V17)</f>
-        <v>4.5</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="40"/>
-    </row>
-    <row r="18" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <f>SUM(H18:V18)</f>
-        <v>4.5</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="40"/>
-    </row>
-    <row r="19" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <f>SUM(H19:V19)</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33">
-        <v>2</v>
-      </c>
-      <c r="R19" s="46"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="40"/>
-    </row>
-    <row r="20" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2">
-        <f>SUM(H20:V20)</f>
-        <v>2</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33">
-        <v>2</v>
-      </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="40"/>
-    </row>
-    <row r="21" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="9">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2">
-        <f>SUM(H21:V21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="40"/>
-    </row>
-    <row r="22" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <f>SUM(H22:V22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="40"/>
-    </row>
-    <row r="23" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F23" s="2">
-        <f>SUM(H23:V23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="40"/>
-    </row>
-    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2">
-        <f>SUM(H24:V24)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="40"/>
-    </row>
-    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2">
-        <f>SUM(H25:V25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="40"/>
-    </row>
-    <row r="26" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
+      <c r="F36" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0</v>
+      </c>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="43"/>
+    </row>
+    <row r="37" spans="1:37" ht="27" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="43"/>
+    </row>
+    <row r="38" spans="1:37" ht="27" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2">
-        <f>SUM(H26:V26)</f>
-        <v>2</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33">
-        <v>1</v>
-      </c>
-      <c r="R26" s="46"/>
-      <c r="S26" s="26">
-        <v>1</v>
-      </c>
-      <c r="T26" s="26"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="40"/>
-    </row>
-    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="4"/>
-      <c r="D27" s="9" t="s">
+      <c r="C38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="9">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2">
-        <f>SUM(H27:V27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="40"/>
-    </row>
-    <row r="28" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
+      <c r="E38" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="43"/>
+    </row>
+    <row r="39" spans="1:37" ht="27" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="F28" s="2">
-        <f>SUM(H28:V28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="40"/>
-    </row>
-    <row r="29" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
+      <c r="E39" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0</v>
+      </c>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="43"/>
+    </row>
+    <row r="40" spans="1:37" ht="27" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="8"/>
+    </row>
+    <row r="41" spans="1:37" ht="27" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="D41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <f>SUM(H29:V29)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="40"/>
-    </row>
-    <row r="30" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="9" t="s">
+      <c r="N41" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="O41" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="P41" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="27" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:37" ht="27" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="D43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2">
-        <f>SUM(H30:V30)</f>
-        <v>2</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="40"/>
-    </row>
-    <row r="31" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <f>SUM(H31:V31)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="41"/>
-    </row>
-    <row r="32" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="G43" s="2">
         <f>COUNT(H6:V6)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="D35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1">
-        <f>COUNT(G7:G31)</f>
-        <v>25</v>
-      </c>
-      <c r="H35" s="21">
-        <f>G35-($G35/$G$34)</f>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="I35" s="21">
-        <f t="shared" ref="I35:U35" si="2">H35-($G35/$G$34)</f>
-        <v>21.666666666666664</v>
-      </c>
-      <c r="J35" s="21">
-        <f t="shared" si="2"/>
-        <v>19.999999999999996</v>
-      </c>
-      <c r="K35" s="21">
-        <f t="shared" si="2"/>
-        <v>18.333333333333329</v>
-      </c>
-      <c r="L35" s="21">
-        <f t="shared" si="2"/>
-        <v>16.666666666666661</v>
-      </c>
-      <c r="M35" s="21">
-        <f t="shared" si="2"/>
-        <v>14.999999999999995</v>
-      </c>
-      <c r="N35" s="21">
-        <f t="shared" si="2"/>
-        <v>13.333333333333329</v>
-      </c>
-      <c r="O35" s="21">
-        <f t="shared" si="2"/>
-        <v>11.666666666666663</v>
-      </c>
-      <c r="P35" s="21">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999964</v>
-      </c>
-      <c r="Q35" s="21">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="R35" s="21">
-        <f>Q35-($G35/$G$34)</f>
-        <v>6.6666666666666634</v>
-      </c>
-      <c r="S35" s="21">
-        <f t="shared" si="2"/>
-        <v>4.9999999999999964</v>
-      </c>
-      <c r="T35" s="21">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333295</v>
-      </c>
-      <c r="U35" s="21">
-        <f t="shared" si="2"/>
-        <v>1.6666666666666627</v>
-      </c>
-      <c r="V35" s="21">
-        <f>U35-($G35/$G$34)</f>
-        <v>-3.9968028886505635E-15</v>
-      </c>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
-      <c r="AK35" s="21"/>
-    </row>
-    <row r="36" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="D36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <f>G35-SUM(G9:G25)</f>
-        <v>14</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="21"/>
-      <c r="AK36" s="21"/>
-    </row>
-    <row r="37" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="D37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="21">
-        <f t="shared" ref="H37:V37" si="3">SUM(H7:H31)</f>
-        <v>4.5</v>
-      </c>
-      <c r="I37" s="21">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="J37" s="21">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="K37" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="21">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M37" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="21">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="O37" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="21">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Q37" s="21">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="R37" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="21">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="T37" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-    </row>
-    <row r="38" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="D38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="7">
-        <f>SUM(E7:E31)</f>
-        <v>47.2</v>
-      </c>
-      <c r="H38" s="21">
-        <f>E38-SUM(H7:H31)</f>
-        <v>42.7</v>
-      </c>
-      <c r="I38" s="21">
-        <f t="shared" ref="I38:V38" si="4">H38-SUM(I7:I31)</f>
-        <v>38.200000000000003</v>
-      </c>
-      <c r="J38" s="21">
-        <f t="shared" si="4"/>
-        <v>37.6</v>
-      </c>
-      <c r="K38" s="21">
-        <f t="shared" si="4"/>
-        <v>37.6</v>
-      </c>
-      <c r="L38" s="21">
-        <f t="shared" si="4"/>
-        <v>33.6</v>
-      </c>
-      <c r="M38" s="21">
-        <f t="shared" si="4"/>
-        <v>33.6</v>
-      </c>
-      <c r="N38" s="21">
-        <f t="shared" si="4"/>
-        <v>24.6</v>
-      </c>
-      <c r="O38" s="21">
-        <f t="shared" si="4"/>
-        <v>24.6</v>
-      </c>
-      <c r="P38" s="21">
-        <f t="shared" si="4"/>
-        <v>22.6</v>
-      </c>
-      <c r="Q38" s="21">
-        <f t="shared" si="4"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="R38" s="21">
-        <f t="shared" si="4"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="S38" s="21">
-        <f t="shared" si="4"/>
-        <v>14.600000000000001</v>
-      </c>
-      <c r="T38" s="21">
-        <f t="shared" si="4"/>
-        <v>14.600000000000001</v>
-      </c>
-      <c r="U38" s="21">
-        <f t="shared" si="4"/>
-        <v>14.600000000000001</v>
-      </c>
-      <c r="V38" s="21">
-        <f t="shared" si="4"/>
-        <v>14.600000000000001</v>
-      </c>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="21"/>
-    </row>
-    <row r="39" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="D39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="7">
-        <f>SUM(E7:E31)</f>
-        <v>47.2</v>
-      </c>
-      <c r="H39" s="21">
-        <f>E39-($E$39/$G$34)</f>
-        <v>44.053333333333335</v>
-      </c>
-      <c r="I39" s="21">
-        <f>H39-($E$39/$G$34)</f>
-        <v>40.906666666666666</v>
-      </c>
-      <c r="J39" s="21">
-        <f t="shared" ref="J39:AJ39" si="5">I39-($E$39/$G$34)</f>
-        <v>37.76</v>
-      </c>
-      <c r="K39" s="21">
-        <f t="shared" si="5"/>
-        <v>34.61333333333333</v>
-      </c>
-      <c r="L39" s="21">
-        <f t="shared" si="5"/>
-        <v>31.466666666666661</v>
-      </c>
-      <c r="M39" s="21">
-        <f t="shared" si="5"/>
-        <v>28.319999999999993</v>
-      </c>
-      <c r="N39" s="21">
-        <f t="shared" si="5"/>
-        <v>25.173333333333325</v>
-      </c>
-      <c r="O39" s="21">
-        <f t="shared" si="5"/>
-        <v>22.026666666666657</v>
-      </c>
-      <c r="P39" s="21">
-        <f t="shared" si="5"/>
-        <v>18.879999999999988</v>
-      </c>
-      <c r="Q39" s="21">
-        <f t="shared" si="5"/>
-        <v>15.733333333333322</v>
-      </c>
-      <c r="R39" s="21">
-        <f t="shared" si="5"/>
-        <v>12.586666666666655</v>
-      </c>
-      <c r="S39" s="21">
-        <f t="shared" si="5"/>
-        <v>9.4399999999999888</v>
-      </c>
-      <c r="T39" s="21">
-        <f t="shared" si="5"/>
-        <v>6.2933333333333223</v>
-      </c>
-      <c r="U39" s="21">
-        <f t="shared" si="5"/>
-        <v>3.1466666666666554</v>
-      </c>
-      <c r="V39" s="21">
-        <f t="shared" si="5"/>
-        <v>-1.1546319456101628E-14</v>
-      </c>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="21"/>
-      <c r="AJ39" s="21"/>
-      <c r="AK39" s="21"/>
-    </row>
-    <row r="40" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:37" ht="27" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="G44" s="1">
+        <f>COUNT(G7:G40)</f>
+        <v>33</v>
+      </c>
+      <c r="H44" s="4">
+        <f>G44-($G44/$G$43)</f>
+        <v>30.8</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" ref="I44:U44" si="4">H44-($G44/$G$43)</f>
+        <v>28.6</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="4"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="4"/>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="4"/>
+        <v>22.000000000000004</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="4"/>
+        <v>19.800000000000004</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="4"/>
+        <v>17.600000000000005</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="4"/>
+        <v>15.400000000000006</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="4"/>
+        <v>13.200000000000006</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="4"/>
+        <v>11.000000000000007</v>
+      </c>
+      <c r="R44" s="4">
+        <f>Q44-($G44/$G$43)</f>
+        <v>8.8000000000000078</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="4"/>
+        <v>6.6000000000000076</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000075</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000073</v>
+      </c>
+      <c r="V44" s="4">
+        <f>U44-($G44/$G$43)</f>
+        <v>7.1054273576010019E-15</v>
+      </c>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+    </row>
+    <row r="45" spans="1:37" ht="27" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="E46" s="1"/>
+      <c r="G45" s="1">
+        <f>G44-SUM(G9:G40)</f>
+        <v>33</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+    </row>
+    <row r="46" spans="1:37" ht="27" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="D46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="4">
+        <f>SUM(H46:V46)</f>
+        <v>6.4</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="H46" s="4">
+        <f t="shared" ref="H46:V46" si="5">SUM(H7:H40)</f>
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+    </row>
+    <row r="47" spans="1:37" ht="27" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="D47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="2">
+        <f>SUM(E7:E40)</f>
+        <v>46.200000000000017</v>
+      </c>
+      <c r="H47" s="4">
+        <f>E47-SUM(H7:H40)</f>
+        <v>45.200000000000017</v>
+      </c>
+      <c r="I47" s="4">
+        <f>H47-SUM(I7:I40)</f>
+        <v>45.200000000000017</v>
+      </c>
+      <c r="J47" s="4">
+        <f>I47-SUM(J7:J40)</f>
+        <v>45.200000000000017</v>
+      </c>
+      <c r="K47" s="4">
+        <f>J47-SUM(K7:K40)</f>
+        <v>45.200000000000017</v>
+      </c>
+      <c r="L47" s="4">
+        <f>K47-SUM(L7:L40)</f>
+        <v>44.200000000000017</v>
+      </c>
+      <c r="M47" s="4">
+        <f>L47-SUM(M7:M40)</f>
+        <v>43.200000000000017</v>
+      </c>
+      <c r="N47" s="4">
+        <f>M47-SUM(N7:N40)</f>
+        <v>42.000000000000014</v>
+      </c>
+      <c r="O47" s="4">
+        <f>N47-SUM(O7:O40)</f>
+        <v>41.000000000000014</v>
+      </c>
+      <c r="P47" s="4">
+        <f>O47-SUM(P7:P40)</f>
+        <v>40.000000000000014</v>
+      </c>
+      <c r="Q47" s="4">
+        <f>P47-SUM(Q7:Q40)</f>
+        <v>39.800000000000011</v>
+      </c>
+      <c r="R47" s="4">
+        <f>Q47-SUM(R7:R40)</f>
+        <v>39.800000000000011</v>
+      </c>
+      <c r="S47" s="4">
+        <f>R47-SUM(S7:S40)</f>
+        <v>39.800000000000011</v>
+      </c>
+      <c r="T47" s="4">
+        <f>S47-SUM(T7:T40)</f>
+        <v>39.800000000000011</v>
+      </c>
+      <c r="U47" s="4">
+        <f>T47-SUM(U7:U40)</f>
+        <v>39.800000000000011</v>
+      </c>
+      <c r="V47" s="4">
+        <f>U47-SUM(V7:V40)</f>
+        <v>39.800000000000011</v>
+      </c>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+    </row>
+    <row r="48" spans="1:37" ht="27" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="D48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="2">
+        <f>SUM(E7:E40)</f>
+        <v>46.200000000000017</v>
+      </c>
+      <c r="H48" s="4">
+        <f>E48-($E$48/$G$43)</f>
+        <v>43.120000000000019</v>
+      </c>
+      <c r="I48" s="4">
+        <f>H48-($E$48/$G$43)</f>
+        <v>40.04000000000002</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" ref="J48:AJ48" si="6">I48-($E$48/$G$43)</f>
+        <v>36.960000000000022</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="6"/>
+        <v>33.880000000000024</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="6"/>
+        <v>30.800000000000022</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="6"/>
+        <v>27.72000000000002</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="6"/>
+        <v>24.640000000000018</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="6"/>
+        <v>21.560000000000016</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="6"/>
+        <v>18.480000000000015</v>
+      </c>
+      <c r="Q48" s="4">
+        <f t="shared" si="6"/>
+        <v>15.400000000000013</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="6"/>
+        <v>12.320000000000011</v>
+      </c>
+      <c r="S48" s="4">
+        <f t="shared" si="6"/>
+        <v>9.2400000000000091</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" si="6"/>
+        <v>6.1600000000000081</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="6"/>
+        <v>3.0800000000000072</v>
+      </c>
+      <c r="V48" s="4">
+        <f t="shared" si="6"/>
+        <v>6.2172489379008766E-15</v>
+      </c>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+    </row>
+    <row r="49" spans="1:30" ht="27" customHeight="1">
+      <c r="A49" s="2"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:30" ht="27" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:30" ht="27" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:30" ht="27" customHeight="1">
+      <c r="A52" s="2"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="27" customHeight="1">
+      <c r="A53" s="2"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+    </row>
+    <row r="54" spans="1:30" ht="27" customHeight="1">
+      <c r="A54" s="2"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="27" customHeight="1">
+      <c r="A55" s="2"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="27" customHeight="1">
+      <c r="A56" s="2"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="27" customHeight="1">
+      <c r="A57" s="2"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="27" customHeight="1">
+      <c r="A58" s="2"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="27" customHeight="1">
+      <c r="A59" s="2"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:30" ht="27" customHeight="1">
+      <c r="A60" s="2"/>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:30" ht="27" customHeight="1">
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="20"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:30" ht="27" customHeight="1">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:30" ht="27" customHeight="1">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:30" ht="27" customHeight="1">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="5:9" ht="27" customHeight="1">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="5:9" ht="27" customHeight="1">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="5:9" ht="27" customHeight="1">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="5:9" ht="27" customHeight="1">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="5:9" ht="27" customHeight="1">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="5:9" ht="27" customHeight="1">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="5:9" ht="27" customHeight="1">
+      <c r="E71" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:V4"/>
+    <mergeCell ref="G53:AD53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
